--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.01606133333333333</v>
+        <v>0.04422566666666666</v>
       </c>
       <c r="H2">
-        <v>0.048184</v>
+        <v>0.132677</v>
       </c>
       <c r="I2">
-        <v>0.001454104962996282</v>
+        <v>0.00399376563542826</v>
       </c>
       <c r="J2">
-        <v>0.001454104962996282</v>
+        <v>0.003993765635428259</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>0.8498100239582222</v>
+        <v>5.452168594286555</v>
       </c>
       <c r="R2">
-        <v>7.648290215623999</v>
+        <v>49.069517348579</v>
       </c>
       <c r="S2">
-        <v>0.0006051134823402717</v>
+        <v>0.002492738400126379</v>
       </c>
       <c r="T2">
-        <v>0.0006051134823402716</v>
+        <v>0.002492738400126379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01606133333333333</v>
+        <v>0.04422566666666666</v>
       </c>
       <c r="H3">
-        <v>0.048184</v>
+        <v>0.132677</v>
       </c>
       <c r="I3">
-        <v>0.001454104962996282</v>
+        <v>0.00399376563542826</v>
       </c>
       <c r="J3">
-        <v>0.001454104962996282</v>
+        <v>0.003993765635428259</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>0.7590595502444444</v>
+        <v>2.090107586497222</v>
       </c>
       <c r="R3">
-        <v>6.831535952199999</v>
+        <v>18.81096827847499</v>
       </c>
       <c r="S3">
-        <v>0.0005404939395897698</v>
+        <v>0.0009555998408994287</v>
       </c>
       <c r="T3">
-        <v>0.0005404939395897697</v>
+        <v>0.0009555998408994283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.01606133333333333</v>
+        <v>0.04422566666666666</v>
       </c>
       <c r="H4">
-        <v>0.048184</v>
+        <v>0.132677</v>
       </c>
       <c r="I4">
-        <v>0.001454104962996282</v>
+        <v>0.00399376563542826</v>
       </c>
       <c r="J4">
-        <v>0.001454104962996282</v>
+        <v>0.003993765635428259</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>0.4332481599164445</v>
+        <v>1.192969992388222</v>
       </c>
       <c r="R4">
-        <v>3.899233439248</v>
+        <v>10.736729931494</v>
       </c>
       <c r="S4">
-        <v>0.0003084975410662407</v>
+        <v>0.0005454273944024522</v>
       </c>
       <c r="T4">
-        <v>0.0003084975410662406</v>
+        <v>0.000545427394402452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.111093</v>
+        <v>8.111092999999999</v>
       </c>
       <c r="H5">
         <v>24.333279</v>
       </c>
       <c r="I5">
-        <v>0.7343338402762993</v>
+        <v>0.732466165706853</v>
       </c>
       <c r="J5">
-        <v>0.7343338402762992</v>
+        <v>0.7324661657068529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>429.1603936985744</v>
+        <v>999.9407550654034</v>
       </c>
       <c r="R5">
-        <v>3862.443543287169</v>
+        <v>8999.466795588633</v>
       </c>
       <c r="S5">
-        <v>0.3055868170439857</v>
+        <v>0.4571741821437689</v>
       </c>
       <c r="T5">
-        <v>0.3055868170439856</v>
+        <v>0.4571741821437688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.111093</v>
+        <v>8.111092999999999</v>
       </c>
       <c r="H6">
         <v>24.333279</v>
       </c>
       <c r="I6">
-        <v>0.7343338402762993</v>
+        <v>0.732466165706853</v>
       </c>
       <c r="J6">
-        <v>0.7343338402762992</v>
+        <v>0.7324661657068529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
-        <v>383.3307283270916</v>
+        <v>383.3307283270915</v>
       </c>
       <c r="R6">
-        <v>3449.976554943825</v>
+        <v>3449.976554943824</v>
       </c>
       <c r="S6">
-        <v>0.2729534665002286</v>
+        <v>0.1752592954390091</v>
       </c>
       <c r="T6">
-        <v>0.2729534665002285</v>
+        <v>0.175259295439009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.111093</v>
+        <v>8.111092999999999</v>
       </c>
       <c r="H7">
         <v>24.333279</v>
       </c>
       <c r="I7">
-        <v>0.7343338402762993</v>
+        <v>0.732466165706853</v>
       </c>
       <c r="J7">
-        <v>0.7343338402762992</v>
+        <v>0.7324661657068529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
-        <v>218.7935487191487</v>
+        <v>218.7935487191486</v>
       </c>
       <c r="R7">
         <v>1969.141938472338</v>
       </c>
       <c r="S7">
-        <v>0.1557935567320852</v>
+        <v>0.1000326881240751</v>
       </c>
       <c r="T7">
-        <v>0.1557935567320851</v>
+        <v>0.100032688124075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>2.918357333333333</v>
       </c>
       <c r="H8">
-        <v>8.755072</v>
+        <v>8.755071999999998</v>
       </c>
       <c r="I8">
-        <v>0.2642120547607045</v>
+        <v>0.2635400686577188</v>
       </c>
       <c r="J8">
-        <v>0.2642120547607045</v>
+        <v>0.2635400686577188</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>154.4111727145102</v>
+        <v>359.776966611527</v>
       </c>
       <c r="R8">
-        <v>1389.700554430592</v>
+        <v>3237.992699503744</v>
       </c>
       <c r="S8">
-        <v>0.1099496120301305</v>
+        <v>0.1644904856928575</v>
       </c>
       <c r="T8">
-        <v>0.1099496120301305</v>
+        <v>0.1644904856928575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.918357333333333</v>
       </c>
       <c r="H9">
-        <v>8.755072</v>
+        <v>8.755071999999998</v>
       </c>
       <c r="I9">
-        <v>0.2642120547607045</v>
+        <v>0.2635400686577188</v>
       </c>
       <c r="J9">
-        <v>0.2642120547607045</v>
+        <v>0.2635400686577188</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
         <v>137.9217378108444</v>
@@ -1004,10 +1004,10 @@
         <v>1241.2956402976</v>
       </c>
       <c r="S9">
-        <v>0.09820818854126026</v>
+        <v>0.06305799355022378</v>
       </c>
       <c r="T9">
-        <v>0.09820818854126026</v>
+        <v>0.06305799355022378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>2.918357333333333</v>
       </c>
       <c r="H10">
-        <v>8.755072</v>
+        <v>8.755071999999998</v>
       </c>
       <c r="I10">
-        <v>0.2642120547607045</v>
+        <v>0.2635400686577188</v>
       </c>
       <c r="J10">
-        <v>0.2642120547607045</v>
+        <v>0.2635400686577188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
-        <v>78.72154312502045</v>
+        <v>78.72154312502043</v>
       </c>
       <c r="R10">
-        <v>708.4938881251841</v>
+        <v>708.4938881251838</v>
       </c>
       <c r="S10">
-        <v>0.05605425418931375</v>
+        <v>0.03599158941463754</v>
       </c>
       <c r="T10">
-        <v>0.05605425418931375</v>
+        <v>0.03599158941463754</v>
       </c>
     </row>
   </sheetData>
